--- a/list.xlsx
+++ b/list.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20378"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20379"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IT_03\Documents\Sertificater\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ИТУ-1-01-1\Documents\Certificater\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BCDAAC1-453F-4550-BF3A-C4E08DF25118}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{271CC080-3C4A-4175-A655-592C5DC11406}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{3F850BFE-8BAD-4B51-A880-3624EAA49912}"/>
   </bookViews>
@@ -25,22 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
-  <si>
-    <t>ФИО</t>
-  </si>
-  <si>
-    <t>Тип</t>
-  </si>
-  <si>
-    <t>Добавочный тип</t>
-  </si>
-  <si>
-    <t>Название шаблона</t>
-  </si>
-  <si>
-    <t>Template</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
   <si>
     <t>Виктунов Аркадий Петрович</t>
   </si>
@@ -48,13 +33,19 @@
     <t>Диплом</t>
   </si>
   <si>
-    <t>I степени</t>
-  </si>
-  <si>
     <t>Дианенкова Ирина Дмитриевна</t>
   </si>
   <si>
-    <t>II степени</t>
+    <t>tmplt</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>template</t>
   </si>
 </sst>
 </file>
@@ -407,10 +398,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B029FD6-8C9E-423B-BC1A-47A10E39F854}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C1" sqref="C1:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -421,46 +412,37 @@
     <col min="4" max="4" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/list.xlsx
+++ b/list.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20379"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ИТУ-1-01-1\Documents\Certificater\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Программирование\Projects\Certificater\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{271CC080-3C4A-4175-A655-592C5DC11406}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{3F850BFE-8BAD-4B51-A880-3624EAA49912}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>Виктунов Аркадий Петрович</t>
   </si>
@@ -46,13 +45,19 @@
   </si>
   <si>
     <t>template</t>
+  </si>
+  <si>
+    <t>case</t>
+  </si>
+  <si>
+    <t>dative</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -61,16 +66,31 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -78,12 +98,44 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -397,11 +449,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B029FD6-8C9E-423B-BC1A-47A10E39F854}">
-  <dimension ref="A1:C3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -412,7 +464,7 @@
     <col min="4" max="4" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -422,8 +474,11 @@
       <c r="C1" t="s">
         <v>6</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -433,8 +488,11 @@
       <c r="C2" t="s">
         <v>3</v>
       </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -447,5 +505,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/list.xlsx
+++ b/list.xlsx
@@ -35,9 +35,6 @@
     <t>Дианенкова Ирина Дмитриевна</t>
   </si>
   <si>
-    <t>tmplt</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
@@ -51,6 +48,9 @@
   </si>
   <si>
     <t>dative</t>
+  </si>
+  <si>
+    <t>tmplt.pptx</t>
   </si>
 </sst>
 </file>
@@ -453,7 +453,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -466,16 +466,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -486,10 +486,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -500,7 +500,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
